--- a/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
+++ b/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,96 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3421,6 +3511,336 @@
         <v>13</v>
       </c>
     </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>6480</v>
+      </c>
+      <c r="C218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>6470</v>
+      </c>
+      <c r="C219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>6470</v>
+      </c>
+      <c r="C220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>6470</v>
+      </c>
+      <c r="C221">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>6406</v>
+      </c>
+      <c r="C222">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>6382</v>
+      </c>
+      <c r="C223">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>6442</v>
+      </c>
+      <c r="C224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>6501</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>6503</v>
+      </c>
+      <c r="C226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>6503</v>
+      </c>
+      <c r="C227">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>6503</v>
+      </c>
+      <c r="C228">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>6491</v>
+      </c>
+      <c r="C229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>6408</v>
+      </c>
+      <c r="C230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>6364</v>
+      </c>
+      <c r="C231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>6380</v>
+      </c>
+      <c r="C232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>6361</v>
+      </c>
+      <c r="C233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>6361</v>
+      </c>
+      <c r="C234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>6361</v>
+      </c>
+      <c r="C235">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>6390</v>
+      </c>
+      <c r="C236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>6416</v>
+      </c>
+      <c r="C237">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>6425</v>
+      </c>
+      <c r="C238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>6418</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>6401</v>
+      </c>
+      <c r="C240">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>6401</v>
+      </c>
+      <c r="C241">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>6401</v>
+      </c>
+      <c r="C242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>6407</v>
+      </c>
+      <c r="C243">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>6443</v>
+      </c>
+      <c r="C244">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>6483</v>
+      </c>
+      <c r="C245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>6551</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>6540</v>
+      </c>
+      <c r="C247">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
+++ b/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3841,6 +3853,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>6540</v>
+      </c>
+      <c r="C248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>6540</v>
+      </c>
+      <c r="C249">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>6556</v>
+      </c>
+      <c r="C250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>6524</v>
+      </c>
+      <c r="C251">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
+++ b/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,30 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3897,6 +3921,94 @@
         <v>13</v>
       </c>
     </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>6460</v>
+      </c>
+      <c r="C252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>6381</v>
+      </c>
+      <c r="C253">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>6351</v>
+      </c>
+      <c r="C254">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>6351</v>
+      </c>
+      <c r="C255">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>6351</v>
+      </c>
+      <c r="C256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>6362</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>6408</v>
+      </c>
+      <c r="C258">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>6416</v>
+      </c>
+      <c r="C259">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
+++ b/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Serie</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4009,6 +4012,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>6427</v>
+      </c>
+      <c r="C260">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
+++ b/5/7/3/Operaciones REPO 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>Serie</t>
   </si>
@@ -800,6 +800,42 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4023,6 +4059,138 @@
         <v>13</v>
       </c>
     </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>6427</v>
+      </c>
+      <c r="C261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>6427</v>
+      </c>
+      <c r="C262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>6427</v>
+      </c>
+      <c r="C263">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>6438</v>
+      </c>
+      <c r="C264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>6377</v>
+      </c>
+      <c r="C265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>6401</v>
+      </c>
+      <c r="C266">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>6401</v>
+      </c>
+      <c r="C267">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>6383</v>
+      </c>
+      <c r="C268">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>6383</v>
+      </c>
+      <c r="C269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>6383</v>
+      </c>
+      <c r="C270">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>6369</v>
+      </c>
+      <c r="C271">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272">
+        <v>6317</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
